--- a/TAR/Final TAR.xlsx
+++ b/TAR/Final TAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anmol Kumar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BF19F3-F9C4-44A0-9821-778CB051EC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C35762-113B-447F-83AD-5FB4E5EA070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Period 1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,14 @@
     <sheet name="Time Period 6" sheetId="6" r:id="rId6"/>
     <sheet name="FInal Total" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -1177,52 +1179,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color rgb="FF000000"/>
@@ -1513,6 +1469,24 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color rgb="FF000000"/>
@@ -1522,6 +1496,1704 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1559,6 +3231,34 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color rgb="FF000000"/>
@@ -1569,7 +3269,7 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom style="thin">
+        <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
         <vertical/>
@@ -1603,7 +3303,7 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom style="thin">
+        <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
         <vertical/>
@@ -1637,7 +3337,7 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom style="thin">
+        <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
         <vertical/>
@@ -1671,7 +3371,7 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom style="thin">
+        <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
         <vertical/>
@@ -1705,7 +3405,7 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom style="thin">
+        <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
         <vertical/>
@@ -1739,7 +3439,7 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom style="thin">
+        <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
         <vertical/>
@@ -1773,7 +3473,7 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom style="thin">
+        <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
         <vertical/>
@@ -1807,7 +3507,41 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom style="thin">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
         <vertical/>
@@ -1841,6 +3575,40 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -1884,13 +3652,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="medium">
           <color rgb="FF000000"/>
         </top>
@@ -1913,11 +3674,36 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+        <left style="medium">
           <color rgb="FF000000"/>
         </left>
-        <right style="thin">
+        <right style="medium">
           <color rgb="FF000000"/>
         </right>
         <top/>
@@ -1941,345 +3727,11 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color rgb="FF000000"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
+        <right style="medium">
           <color rgb="FF000000"/>
         </right>
         <top style="thin">
@@ -2327,23 +3779,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2360,368 +3795,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -2774,103 +3847,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2888,46 +3864,16 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+        <left style="thin">
           <color rgb="FF000000"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="medium">
+        <top style="thin">
           <color rgb="FF000000"/>
         </top>
         <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
         <vertical/>
@@ -2961,7 +3907,7 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom style="medium">
+        <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
         <vertical/>
@@ -2995,7 +3941,7 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom style="medium">
+        <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
         <vertical/>
@@ -3029,7 +3975,7 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom style="medium">
+        <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
         <vertical/>
@@ -3063,7 +4009,7 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom style="medium">
+        <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
         <vertical/>
@@ -3097,109 +4043,7 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
+        <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
         <vertical/>
@@ -3233,11 +4077,43 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <bottom style="medium">
+        <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3268,880 +4144,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4156,144 +4158,144 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EADD6EBA-CC9B-4CE4-9E3A-6938EFCC3667}" name="Table1" displayName="Table1" ref="A14:L24" totalsRowShown="0" headerRowDxfId="87" dataDxfId="88" headerRowBorderDxfId="100" tableBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EADD6EBA-CC9B-4CE4-9E3A-6938EFCC3667}" name="Table1" displayName="Table1" ref="A14:L24" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98">
   <autoFilter ref="A14:L24" xr:uid="{EADD6EBA-CC9B-4CE4-9E3A-6938EFCC3667}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{52E0F16E-9066-4F63-ACFB-B82A08EF34F5}" name="#" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{A8F4EF51-656F-4B4B-B3D4-85AB6CED69AA}" name="Workpackage" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{CD817193-E71B-44E0-93CF-1B7F42ABFAF1}" name="Activity" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{81057EDF-6D4E-4558-B6F0-F006662A2BBE}" name="Start Date" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{52E0F16E-9066-4F63-ACFB-B82A08EF34F5}" name="#" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{A8F4EF51-656F-4B4B-B3D4-85AB6CED69AA}" name="Workpackage" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{CD817193-E71B-44E0-93CF-1B7F42ABFAF1}" name="Activity" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{81057EDF-6D4E-4558-B6F0-F006662A2BBE}" name="Start Date" dataDxfId="94"/>
     <tableColumn id="5" xr3:uid="{D44F049D-2889-4454-B624-F24474F1ACC1}" name="End Date"/>
-    <tableColumn id="6" xr3:uid="{4DF8955D-715E-440C-AFEB-42EE333539B6}" name="Hours: Team member 1" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{C45B58FE-A580-4106-87FF-8B22564860D3}" name="Hours: Team member 2" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{262BF93C-EA3B-490B-A6BB-2D49E89AD3D7}" name="Hours: Team member 3" dataDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{5713320D-4C63-4055-87E4-3A243F871FB2}" name="Hours: Team member 4" dataDxfId="92"/>
-    <tableColumn id="10" xr3:uid="{70534BD5-D1A6-4FAD-8BB6-43B30561E9B2}" name="Hours: Team member 5" dataDxfId="91"/>
-    <tableColumn id="11" xr3:uid="{465B5FFE-4069-453D-91D9-119C34AB6361}" name="Hours: Team member 6" dataDxfId="90"/>
-    <tableColumn id="12" xr3:uid="{A1935DCC-2393-45F6-8A40-ECED39E7C591}" name="Total hours" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{4DF8955D-715E-440C-AFEB-42EE333539B6}" name="Hours: Team member 1" dataDxfId="93"/>
+    <tableColumn id="7" xr3:uid="{C45B58FE-A580-4106-87FF-8B22564860D3}" name="Hours: Team member 2" dataDxfId="92"/>
+    <tableColumn id="8" xr3:uid="{262BF93C-EA3B-490B-A6BB-2D49E89AD3D7}" name="Hours: Team member 3" dataDxfId="91"/>
+    <tableColumn id="9" xr3:uid="{5713320D-4C63-4055-87E4-3A243F871FB2}" name="Hours: Team member 4" dataDxfId="90"/>
+    <tableColumn id="10" xr3:uid="{70534BD5-D1A6-4FAD-8BB6-43B30561E9B2}" name="Hours: Team member 5" dataDxfId="89"/>
+    <tableColumn id="11" xr3:uid="{465B5FFE-4069-453D-91D9-119C34AB6361}" name="Hours: Team member 6" dataDxfId="88"/>
+    <tableColumn id="12" xr3:uid="{A1935DCC-2393-45F6-8A40-ECED39E7C591}" name="Total hours" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{70B8AD35-4CB0-4BEF-9BD5-C68789119822}" name="Table2" displayName="Table2" ref="A14:L21" totalsRowShown="0" headerRowDxfId="71" dataDxfId="72" headerRowBorderDxfId="85" tableBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{70B8AD35-4CB0-4BEF-9BD5-C68789119822}" name="Table2" displayName="Table2" ref="A14:L21" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83">
   <autoFilter ref="A14:L21" xr:uid="{70B8AD35-4CB0-4BEF-9BD5-C68789119822}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{21A0D7BA-D9A1-4D9D-823C-F12D216452D4}" name="#" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{452E6C93-9BC3-4AC3-B4B3-BE78A432039C}" name="Workpackage" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{22178C59-BCBF-4BD0-94C6-B6099958BD8C}" name="Activity" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{1C290F0D-17D2-4A33-8D4F-2FA620CBA5CC}" name="Start Date" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{3F6D4E22-FB6D-4BAF-ACE5-70315FE994DC}" name="End Date" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{CDEF7CAF-DC06-4E3D-8D0F-DDB510295692}" name="Hours: Team member 1" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{C3837D43-B412-4A06-9779-44DE1B520130}" name="Hours: Team member 2" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{CBA3BB11-9798-4C12-AFAB-53214D3FC6BA}" name="Hours: Team member 3" dataDxfId="77"/>
-    <tableColumn id="9" xr3:uid="{9A07A87A-EAE5-45C7-BD90-739F9395DBEB}" name="Hours: Team member 4" dataDxfId="76"/>
-    <tableColumn id="10" xr3:uid="{39975426-7B96-4169-B8D8-B41E1BC98A69}" name="Hours: Team Member 5" dataDxfId="75"/>
-    <tableColumn id="11" xr3:uid="{860D1975-CB03-4A28-AE5D-C34C67980EFE}" name="Hours: Team member 6" dataDxfId="74"/>
-    <tableColumn id="12" xr3:uid="{28B35CC5-AA5F-4FF2-82AE-DD6E7834FAD1}" name="Total hours" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{21A0D7BA-D9A1-4D9D-823C-F12D216452D4}" name="#" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{452E6C93-9BC3-4AC3-B4B3-BE78A432039C}" name="Workpackage" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{22178C59-BCBF-4BD0-94C6-B6099958BD8C}" name="Activity" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{1C290F0D-17D2-4A33-8D4F-2FA620CBA5CC}" name="Start Date" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{3F6D4E22-FB6D-4BAF-ACE5-70315FE994DC}" name="End Date" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{CDEF7CAF-DC06-4E3D-8D0F-DDB510295692}" name="Hours: Team member 1" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{C3837D43-B412-4A06-9779-44DE1B520130}" name="Hours: Team member 2" dataDxfId="76"/>
+    <tableColumn id="8" xr3:uid="{CBA3BB11-9798-4C12-AFAB-53214D3FC6BA}" name="Hours: Team member 3" dataDxfId="75"/>
+    <tableColumn id="9" xr3:uid="{9A07A87A-EAE5-45C7-BD90-739F9395DBEB}" name="Hours: Team member 4" dataDxfId="74"/>
+    <tableColumn id="10" xr3:uid="{39975426-7B96-4169-B8D8-B41E1BC98A69}" name="Hours: Team Member 5" dataDxfId="73"/>
+    <tableColumn id="11" xr3:uid="{860D1975-CB03-4A28-AE5D-C34C67980EFE}" name="Hours: Team member 6" dataDxfId="72"/>
+    <tableColumn id="12" xr3:uid="{28B35CC5-AA5F-4FF2-82AE-DD6E7834FAD1}" name="Total hours" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{173C9E58-F46D-4461-B673-2E70D4BABA14}" name="Table3" displayName="Table3" ref="A13:L21" totalsRowShown="0" headerRowDxfId="58" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{173C9E58-F46D-4461-B673-2E70D4BABA14}" name="Table3" displayName="Table3" ref="A13:L21" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="A13:L21" xr:uid="{173C9E58-F46D-4461-B673-2E70D4BABA14}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{C364B259-F4B1-4F3A-A23B-59C1C604C234}" name="Column1" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{4CD58B21-AAD9-42EB-8942-C9B68193A84D}" name="Column2" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{E94CF64E-F846-4553-AA41-D021BFA86CAE}" name="Column3" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{03445431-117F-4DD2-BDED-6357B248DB76}" name="Column4" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{A9E075DE-4EDB-46DF-BC32-ECF6877A7A76}" name="Column5" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{72E8B1C0-14B3-47A6-B483-EA1D5E30C11D}" name="Column6" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{4610E444-4A37-499C-A4D3-717081363618}" name="Column7" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{8B97703A-50BE-41F2-91C4-EE387E01CE85}" name="Column8" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{0FAE5261-2925-4528-B734-D68D34FA587B}" name="Column9" dataDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{1AE320B7-C93F-43A6-A49C-6D5F51E732C4}" name="Column10" dataDxfId="62"/>
-    <tableColumn id="11" xr3:uid="{8AE96759-3204-4489-AA78-6B866416C1EB}" name="Column11" dataDxfId="61"/>
-    <tableColumn id="12" xr3:uid="{0F208C7D-26D2-4C7E-930D-0A0DF01E042B}" name="Column12" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{C364B259-F4B1-4F3A-A23B-59C1C604C234}" name="Column1" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{4CD58B21-AAD9-42EB-8942-C9B68193A84D}" name="Column2" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{E94CF64E-F846-4553-AA41-D021BFA86CAE}" name="Column3" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{03445431-117F-4DD2-BDED-6357B248DB76}" name="Column4" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{A9E075DE-4EDB-46DF-BC32-ECF6877A7A76}" name="Column5" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{72E8B1C0-14B3-47A6-B483-EA1D5E30C11D}" name="Column6" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{4610E444-4A37-499C-A4D3-717081363618}" name="Column7" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{8B97703A-50BE-41F2-91C4-EE387E01CE85}" name="Column8" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{0FAE5261-2925-4528-B734-D68D34FA587B}" name="Column9" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{1AE320B7-C93F-43A6-A49C-6D5F51E732C4}" name="Column10" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{8AE96759-3204-4489-AA78-6B866416C1EB}" name="Column11" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{0F208C7D-26D2-4C7E-930D-0A0DF01E042B}" name="Column12" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76160BBB-CA94-4274-915C-D22817946319}" name="Table4" displayName="Table4" ref="A14:L22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="42" headerRowBorderDxfId="55" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76160BBB-CA94-4274-915C-D22817946319}" name="Table4" displayName="Table4" ref="A14:L22" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
   <autoFilter ref="A14:L22" xr:uid="{76160BBB-CA94-4274-915C-D22817946319}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E73C36B2-02A4-48B7-B256-AB36DB1B706D}" name="#" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{3262B3E0-53AC-4293-BCF4-CAF38AAC4F3C}" name="Workpackage" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{48A674B8-9757-450C-B011-D97AFB48DC1B}" name="Activity" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{91CFE242-5D39-42F9-AAB6-9682E216A74E}" name="Start Date" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{E8E28B86-842F-49DD-97D4-C25BF702DBC8}" name="End Date" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{31964A3A-E7AA-47BC-924A-2ACEAA36D03C}" name="Hours: Team member 1" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{E3990E80-F22D-40C5-B4D1-D7D19BD178CD}" name="Hours: Team member 2" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{01B3F4B7-C83C-4FA0-819E-BC1D702389EA}" name="Hours: Team member 3" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{8F2F4146-3C49-40A6-9AF1-7D35B8EC60CC}" name="Hours: Team member 32" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{F76D1AAF-CDEB-4C27-A338-A87780F3E062}" name="Hours: Team member 4" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{36F1A2C4-13F6-4EDB-A468-0732D6FBDF88}" name="Hours: Team member 5" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{1FCA98CF-1428-4D66-BD5E-4622F26588F6}" name="Total hours" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{E73C36B2-02A4-48B7-B256-AB36DB1B706D}" name="#" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{3262B3E0-53AC-4293-BCF4-CAF38AAC4F3C}" name="Workpackage" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{48A674B8-9757-450C-B011-D97AFB48DC1B}" name="Activity" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{91CFE242-5D39-42F9-AAB6-9682E216A74E}" name="Start Date" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{E8E28B86-842F-49DD-97D4-C25BF702DBC8}" name="End Date" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{31964A3A-E7AA-47BC-924A-2ACEAA36D03C}" name="Hours: Team member 1" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{E3990E80-F22D-40C5-B4D1-D7D19BD178CD}" name="Hours: Team member 2" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{01B3F4B7-C83C-4FA0-819E-BC1D702389EA}" name="Hours: Team member 3" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{8F2F4146-3C49-40A6-9AF1-7D35B8EC60CC}" name="Hours: Team member 32" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{F76D1AAF-CDEB-4C27-A338-A87780F3E062}" name="Hours: Team member 4" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{36F1A2C4-13F6-4EDB-A468-0732D6FBDF88}" name="Hours: Team member 5" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{1FCA98CF-1428-4D66-BD5E-4622F26588F6}" name="Total hours" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5994204-B79E-4385-85C8-DCD906CE053A}" name="Table5" displayName="Table5" ref="A14:L24" totalsRowShown="0" headerRowDxfId="25" dataDxfId="26" headerRowBorderDxfId="39" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5994204-B79E-4385-85C8-DCD906CE053A}" name="Table5" displayName="Table5" ref="A14:L24" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37">
   <autoFilter ref="A14:L24" xr:uid="{C5994204-B79E-4385-85C8-DCD906CE053A}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{17E3CDF4-EEEA-4D78-BE16-8AA32552466B}" name="#" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{72D7F364-A2FC-4BA4-9E98-E9E046E966F4}" name="Workpackage" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{D21FD165-9837-46C6-ABFB-32A7EC0823A2}" name="Activity" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{B6F0F7DE-3355-4381-A0D9-AA093F541786}" name="Start Date" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{EF84C6B6-5861-4EDD-BEA9-D2B950F51860}" name="End Date" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{6D5EC4AD-1B57-4884-8FF9-161BCC8C234E}" name="Hours: Team member 1" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{AE9A187E-C451-46C3-BF44-3B3D5F228007}" name="Hours: Team member 2" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{6B75AAAC-0FF7-4D6E-BD59-723AE175632F}" name="Hours: Team member 3" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{A87E3F11-C75F-472E-84F0-C9AB91EBD017}" name="Hours: Team member 32" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{902A5455-A76E-429A-932D-18E518818861}" name="Hours: Team member 4" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{CE369D94-02A2-497C-AF1E-A6929068B5FE}" name="Hours: Team member 5" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{D5C4E8FF-CD6A-4BB7-A440-427D0AD584D6}" name="Total hours" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{17E3CDF4-EEEA-4D78-BE16-8AA32552466B}" name="#" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{72D7F364-A2FC-4BA4-9E98-E9E046E966F4}" name="Workpackage" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{D21FD165-9837-46C6-ABFB-32A7EC0823A2}" name="Activity" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{B6F0F7DE-3355-4381-A0D9-AA093F541786}" name="Start Date" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{EF84C6B6-5861-4EDD-BEA9-D2B950F51860}" name="End Date" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{6D5EC4AD-1B57-4884-8FF9-161BCC8C234E}" name="Hours: Team member 1" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{AE9A187E-C451-46C3-BF44-3B3D5F228007}" name="Hours: Team member 2" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{6B75AAAC-0FF7-4D6E-BD59-723AE175632F}" name="Hours: Team member 3" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{A87E3F11-C75F-472E-84F0-C9AB91EBD017}" name="Hours: Team member 32" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{902A5455-A76E-429A-932D-18E518818861}" name="Hours: Team member 4" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{CE369D94-02A2-497C-AF1E-A6929068B5FE}" name="Hours: Team member 5" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{D5C4E8FF-CD6A-4BB7-A440-427D0AD584D6}" name="Total hours" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1DBB6ACB-66FE-42C7-B90B-D35E02B60A6C}" name="Table6" displayName="Table6" ref="A14:L23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12" headerRowBorderDxfId="23" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1DBB6ACB-66FE-42C7-B90B-D35E02B60A6C}" name="Table6" displayName="Table6" ref="A14:L23" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
   <autoFilter ref="A14:L23" xr:uid="{1DBB6ACB-66FE-42C7-B90B-D35E02B60A6C}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F8DD76A5-5484-455D-B928-45D3D73AF76E}" name="#" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{F8DD76A5-5484-455D-B928-45D3D73AF76E}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{C58CFEAC-6758-423F-8F3B-AE60ED0070D7}" name="Workpackage"/>
-    <tableColumn id="3" xr3:uid="{8857F8A5-E4A4-4C87-B2F3-398601A70889}" name="Activity" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{C647EED0-887D-460E-9E23-EE5C68D3DE61}" name="Start Date" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{8857F8A5-E4A4-4C87-B2F3-398601A70889}" name="Activity" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{C647EED0-887D-460E-9E23-EE5C68D3DE61}" name="Start Date" dataDxfId="18"/>
     <tableColumn id="5" xr3:uid="{97A1B0C5-B818-489D-8FC8-CF741FAF3D4A}" name="End Date"/>
-    <tableColumn id="6" xr3:uid="{EA4EF758-0B56-446E-92DF-3CCD84B67F09}" name="Hours: Team member 1" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{E10958F5-9131-48A7-BF09-BFD6906BE596}" name="Hours: Team member 2" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{85188EA9-7DD4-43D1-A12D-257A78371F61}" name="Hours: Team member 3" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{F0D6C138-7244-4C6F-A122-05434BA4B80F}" name="Hours: Team member 4" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{B6DD8106-9C2E-4D75-B591-05BC59C84B26}" name="Hours: Team member 5" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{89488803-55AF-4F6F-86A1-1648F5F2E134}" name="Hours: Team member 6" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{8A7F9069-F6F4-424F-9A61-1CDC195043EF}" name="Total hours" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{EA4EF758-0B56-446E-92DF-3CCD84B67F09}" name="Hours: Team member 1" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{E10958F5-9131-48A7-BF09-BFD6906BE596}" name="Hours: Team member 2" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{85188EA9-7DD4-43D1-A12D-257A78371F61}" name="Hours: Team member 3" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{F0D6C138-7244-4C6F-A122-05434BA4B80F}" name="Hours: Team member 4" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{B6DD8106-9C2E-4D75-B591-05BC59C84B26}" name="Hours: Team member 5" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{89488803-55AF-4F6F-86A1-1648F5F2E134}" name="Hours: Team member 6" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{8A7F9069-F6F4-424F-9A61-1CDC195043EF}" name="Total hours" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F8A061C4-A2E8-42CB-A743-FFDFEB7AFAD3}" name="Table7" displayName="Table7" ref="C14:K22" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F8A061C4-A2E8-42CB-A743-FFDFEB7AFAD3}" name="Table7" displayName="Table7" ref="C14:K22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="C14:K22" xr:uid="{F8A061C4-A2E8-42CB-A743-FFDFEB7AFAD3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{CFE922FF-EDDF-4C47-9055-EE4E0659DCFC}" name="Column1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{745479C2-A8A5-4342-992B-82C90BF21B0F}" name="Time Period " dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CA2F685B-2470-444E-85D5-29B849F3B370}" name="Hours: Team member 1" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{C2732C50-A893-4666-ADDE-15181C9798FB}" name="Hours: Team member 2" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{FB93E56F-C134-4029-AB06-E15D3564E19D}" name="Hours: Team member 3" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{840CD5BA-6BC6-473B-98D1-A862E48F7635}" name="Hours: Team member 4" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{13956D1F-F079-4D36-A2FD-4CD2369C4680}" name="Hours: Team member 5" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{46372FBE-A62A-455A-A8B5-123FEF20EA24}" name="Hours: Team member 6" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{5BA59F1E-B7D6-4E65-A680-70F3C707A07E}" name="Total hours" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CFE922FF-EDDF-4C47-9055-EE4E0659DCFC}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{745479C2-A8A5-4342-992B-82C90BF21B0F}" name="Time Period " dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{CA2F685B-2470-444E-85D5-29B849F3B370}" name="Hours: Team member 1" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{C2732C50-A893-4666-ADDE-15181C9798FB}" name="Hours: Team member 2" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{FB93E56F-C134-4029-AB06-E15D3564E19D}" name="Hours: Team member 3" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{840CD5BA-6BC6-473B-98D1-A862E48F7635}" name="Hours: Team member 4" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{13956D1F-F079-4D36-A2FD-4CD2369C4680}" name="Hours: Team member 5" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{46372FBE-A62A-455A-A8B5-123FEF20EA24}" name="Hours: Team member 6" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{5BA59F1E-B7D6-4E65-A680-70F3C707A07E}" name="Total hours" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5138,31 +5140,31 @@
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="2">
-        <f>SUM(F15:F23)</f>
+        <f t="shared" ref="F24:L24" si="1">SUM(F15:F23)</f>
         <v>34</v>
       </c>
       <c r="G24" s="2">
-        <f>SUM(G15:G23)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H24" s="2">
-        <f>SUM(H15:H23)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="I24" s="2">
-        <f>SUM(I15:I23)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="J24" s="2">
-        <f>SUM(J15:J23)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="K24" s="2">
-        <f>SUM(K15:K23)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="L24" s="28">
-        <f>SUM(L15:L23)</f>
+        <f t="shared" si="1"/>
         <v>184</v>
       </c>
     </row>
@@ -5673,31 +5675,31 @@
       <c r="D21" s="26"/>
       <c r="E21" s="27"/>
       <c r="F21" s="2">
-        <f>SUM(F15:F20)</f>
+        <f t="shared" ref="F21:L21" si="1">SUM(F15:F20)</f>
         <v>29</v>
       </c>
       <c r="G21" s="2">
-        <f>SUM(G15:G20)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="H21" s="2">
-        <f>SUM(H15:H20)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="I21" s="2">
-        <f>SUM(I15:I20)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="J21" s="2">
-        <f>SUM(J15:J20)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="K21" s="2">
-        <f>SUM(K15:K20)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="L21" s="28">
-        <f>SUM(L15:L20)</f>
+        <f t="shared" si="1"/>
         <v>185</v>
       </c>
     </row>
@@ -8833,8 +8835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+    <sheetView topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -9201,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="21">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H16" s="21">
         <v>0</v>
@@ -9354,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H20" s="21">
         <v>0</v>
